--- a/document/WEEKLY REPORT.xlsx
+++ b/document/WEEKLY REPORT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TLCN_K16CLC_TTDQ\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7975DCEF-08AF-440D-BD71-8D3C55AAB1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A0580-E92E-497D-98F6-D82E2373FC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92710647-D1C1-40AC-8631-105059977534}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TIỂU LUẬN CHUYÊN NGÀNH 2019-2020</t>
   </si>
@@ -51,13 +51,22 @@
   </si>
   <si>
     <t>Kết quả thực hiện</t>
+  </si>
+  <si>
+    <t>DỰ ÁN: XÂY DỰNG WEBSITE ONLINE TEST</t>
+  </si>
+  <si>
+    <t>Khảo sát thực trạng dự án, sơ lược về công nghệ thực hiện dự án</t>
+  </si>
+  <si>
+    <t>Vẽ usecase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +94,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,11 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +462,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +470,7 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,6 +488,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -503,15 +525,23 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="3">
